--- a/Modelos em Python/0 dia à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros teste.xlsx
+++ b/Modelos em Python/0 dia à frente(7, 1, 7) (2, 1, 0, 12) 24h Erros teste.xlsx
@@ -601,13 +601,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.005834552247050976</v>
+        <v>0.005780262031113969</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01884864693035159</v>
+        <v>0.01867453229811765</v>
       </c>
       <c r="D11" t="n">
-        <v>0.03799464229285401</v>
+        <v>0.0325776144321485</v>
       </c>
     </row>
     <row r="12">
